--- a/ЛМЕ-УКПК-2021.xlsx
+++ b/ЛМЕ-УКПК-2021.xlsx
@@ -2190,7 +2190,11 @@
       <c r="A16" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="17" t="n"/>
+      <c r="B16" s="17" t="inlineStr">
+        <is>
+          <t>9356</t>
+        </is>
+      </c>
       <c r="C16" s="18" t="inlineStr">
         <is>
           <t>73,1290</t>
@@ -2209,7 +2213,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="17" t="n"/>
-      <c r="C17" s="18" t="n"/>
+      <c r="C17" s="18" t="inlineStr">
+        <is>
+          <t>72.7600</t>
+        </is>
+      </c>
       <c r="D17" s="19" t="n"/>
       <c r="E17" s="19" t="n"/>
       <c r="F17" s="17" t="n"/>

--- a/ЛМЕ-УКПК-2021.xlsx
+++ b/ЛМЕ-УКПК-2021.xlsx
@@ -2230,7 +2230,11 @@
       <c r="A18" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="B18" s="23" t="n"/>
+      <c r="B18" s="23" t="inlineStr">
+        <is>
+          <t>9514.50</t>
+        </is>
+      </c>
       <c r="C18" s="14" t="n"/>
       <c r="D18" s="15" t="n"/>
       <c r="E18" s="15" t="n"/>
@@ -2242,7 +2246,11 @@
         <v>12</v>
       </c>
       <c r="B19" s="23" t="n"/>
-      <c r="C19" s="14" t="n"/>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>72.7600</t>
+        </is>
+      </c>
       <c r="D19" s="15" t="n"/>
       <c r="E19" s="15" t="n"/>
       <c r="F19" s="23" t="n"/>
@@ -2282,7 +2290,11 @@
       <c r="A22" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B22" s="27" t="n"/>
+      <c r="B22" s="27" t="inlineStr">
+        <is>
+          <t>9488</t>
+        </is>
+      </c>
       <c r="C22" s="18" t="n"/>
       <c r="D22" s="19" t="n"/>
       <c r="E22" s="19" t="n"/>
@@ -2296,8 +2308,16 @@
       <c r="A23" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B23" s="27" t="n"/>
-      <c r="C23" s="18" t="n"/>
+      <c r="B23" s="27" t="inlineStr">
+        <is>
+          <t>9488</t>
+        </is>
+      </c>
+      <c r="C23" s="18" t="inlineStr">
+        <is>
+          <t>72.4329</t>
+        </is>
+      </c>
       <c r="D23" s="19" t="n"/>
       <c r="E23" s="19" t="n"/>
       <c r="F23" s="17" t="n"/>
@@ -2312,7 +2332,11 @@
         <v>17</v>
       </c>
       <c r="B24" s="28" t="n"/>
-      <c r="C24" s="18" t="n"/>
+      <c r="C24" s="18" t="inlineStr">
+        <is>
+          <t>72.4329</t>
+        </is>
+      </c>
       <c r="D24" s="19" t="n"/>
       <c r="E24" s="19" t="n"/>
       <c r="F24" s="17" t="n"/>

--- a/ЛМЕ-УКПК-2021.xlsx
+++ b/ЛМЕ-УКПК-2021.xlsx
@@ -2361,7 +2361,11 @@
       <c r="A26" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="B26" s="26" t="n"/>
+      <c r="B26" s="26" t="inlineStr">
+        <is>
+          <t>9435</t>
+        </is>
+      </c>
       <c r="C26" s="14" t="n"/>
       <c r="D26" s="15" t="n"/>
       <c r="E26" s="15" t="n"/>
@@ -2374,7 +2378,11 @@
         <v>20</v>
       </c>
       <c r="B27" s="17" t="n"/>
-      <c r="C27" s="18" t="n"/>
+      <c r="C27" s="18" t="inlineStr">
+        <is>
+          <t>73.3315</t>
+        </is>
+      </c>
       <c r="D27" s="19" t="n"/>
       <c r="E27" s="19" t="n"/>
       <c r="F27" s="17" t="n"/>

--- a/ЛМЕ-УКПК-2021.xlsx
+++ b/ЛМЕ-УКПК-2021.xlsx
@@ -2361,11 +2361,7 @@
       <c r="A26" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="B26" s="26" t="inlineStr">
-        <is>
-          <t>9435</t>
-        </is>
-      </c>
+      <c r="B26" s="26" t="n"/>
       <c r="C26" s="14" t="n"/>
       <c r="D26" s="15" t="n"/>
       <c r="E26" s="15" t="n"/>
